--- a/Datasets_Politik_v4_Puan.xlsx
+++ b/Datasets_Politik_v4_Puan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE136A45-5C3F-440E-8B3E-35514502CB17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E44F0C-2867-44B5-B5B8-C0B10695D3AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
